--- a/06_Face_recognition_spoof_detection/Face_recognition_usbcam/exe/arcface_cam/arcface_cam_summary.xlsx
+++ b/06_Face_recognition_spoof_detection/Face_recognition_usbcam/exe/arcface_cam/arcface_cam_summary.xlsx
@@ -891,7 +891,7 @@
         <v>112</v>
       </c>
       <c r="S7" t="n">
-        <v>356</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" outlineLevel="1">
@@ -15598,7 +15598,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>80141</v>
+        <v>79942</v>
       </c>
     </row>
     <row r="264">
